--- a/key_buildingBlock_pairs_mcd.xlsx
+++ b/key_buildingBlock_pairs_mcd.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BuildingBlocks_2022KCSAT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88447A-AD2E-4FEF-8733-4195682AABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14475" windowHeight="12405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="485">
   <si>
     <t>m0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +58,1814 @@
   </si>
   <si>
     <t>d3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞에서 구한 결과를 이용해서 문제에서 요구하는 것을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$a_{10}$; $k$; $a_{8}$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0002</t>
+  </si>
+  <si>
+    <t>구해진 범위에 속하는 정수의 개수를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정수 $-7&lt;  k&lt;  20$의 개수; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0003</t>
+  </si>
+  <si>
+    <t>구해진 연립방정식을 풉니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미지수는 첫항과 공차;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0004</t>
+  </si>
+  <si>
+    <t>지금까지의 각 참/거짓 결과에서 ㄱ, ㄴ, ㄷ 중 옳은 것을 모두 고릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0005</t>
+  </si>
+  <si>
+    <t>지금까지의 구해진 (가), (나), (다)의 결과를 갖고 문제에서 요구하는 값을 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$f(p) \times g(p)$; $b-a$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0006</t>
+  </si>
+  <si>
+    <t>앞에서 구한 연립방정식의 해를 이용하여 문제에서 요구하는 것을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$60 \times \displaystyle\int_{1}^{2} f(x) d x$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0007</t>
+  </si>
+  <si>
+    <t>앞에서 구한 방정식을 정리하고 근을 구하여 구하려는 문자의 값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0008</t>
+  </si>
+  <si>
+    <t>앞에서 구한 조건에 맞게 함수의 식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수법칙을 적용하기 위해 밑을 일치시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0002</t>
+  </si>
+  <si>
+    <t>지수법칙을 이용하여 지수를 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0003</t>
+  </si>
+  <si>
+    <t>첫째항과 공차를 미지수로 도입합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0004</t>
+  </si>
+  <si>
+    <t>주어진 조건으로부터 첫째항과 공차에 대한 연립방정식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0005</t>
+  </si>
+  <si>
+    <t>항의 조건에 따라 주어진 수열의 관계식을 이용하여 첫째항부터 차례대로 항들을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항과 7의 비교조건;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0006</t>
+  </si>
+  <si>
+    <t>차례대로 구한 항으로부터 수열의 규칙성을 조사합니다.</t>
+  </si>
+  <si>
+    <t>c0007</t>
+  </si>
+  <si>
+    <t>앞에서 구한 항들을 이용하여 문제에서 요구하는 합을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제8항까지의 합; $a_{1}+a_{3}+a_{5}+a_{7}+a_{9}$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0008</t>
+  </si>
+  <si>
+    <t>주어진 방정식을 변형하여 우변이 $0$이 되도록 정리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0009</t>
+  </si>
+  <si>
+    <t>좌변을 주어진 삼각함수에 대하여 인수분해합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\tan \theta$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0010</t>
+  </si>
+  <si>
+    <t>삼각방정식으로 부터 주어진 조건에 맞는 삼각함수값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\tan \theta$에 대한 2차식 인수분해;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0011</t>
+  </si>
+  <si>
+    <t>구해진 삼각함숫값으로부터 다음에 필요한 삼각합숫값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄제트에서 사인과 코사인;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0012</t>
+  </si>
+  <si>
+    <t>앞에서 구한 삼각함숫값들을 이용하여 문제에서 요구하는 식의 값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sin \theta+\cos \theta$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0013</t>
+  </si>
+  <si>
+    <t>교점의 $x$좌표를 미지수로 도입하고, 교점을 미지수로 나타냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 지수함수와 기울기 2인 직선;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0014</t>
+  </si>
+  <si>
+    <t>교점 사이의 거리를 식으로 나타내고, 정리하여 미지수 관계식을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sqrt{1+m^{2}} | x_{1} - x_{2} |$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0015</t>
+  </si>
+  <si>
+    <t>각 교점의 좌표를 주어진 함수에 대입하여 연립방정식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡선 위의 점이면서 직선 위의 점;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0016</t>
+  </si>
+  <si>
+    <t>$\sin \theta$의 값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정계수 a, b, c, d;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0017</t>
+  </si>
+  <si>
+    <t>$\cos \theta$의 값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0); (1, 2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0018</t>
+  </si>
+  <si>
+    <t>$\tan \theta$의 값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0019</t>
+  </si>
+  <si>
+    <t>주어진 삼각함수의 그래프 개형을 파악하기 위해서 삼각함수의 주기를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄젠트함수;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0020</t>
+  </si>
+  <si>
+    <t>두 꼭짓점의 좌표로 부터 정삼각형의 한 변의 길이를 알아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 점 사이의 거리;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0021</t>
+  </si>
+  <si>
+    <t>두 변의 길이와 끼인 각의 사인값을 이용해서 삼각형의 넓이를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정삼각형의 넓이;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0022</t>
+  </si>
+  <si>
+    <t>두 점을 지나는 직선의 방정식을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$\left(a, \log _{2} a\right),\left(b, \log _{2} b\right)$; $\left(a, \log _{4} a\right),\left(b, \log _{4} b\right)$; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">직선의 방정식에 $x=0$을 대입하여 $y$ 절편을 구합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0024</t>
+  </si>
+  <si>
+    <t>구한 두 점의 $y$ 좌표가 일치하도록 방정식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0025</t>
+  </si>
+  <si>
+    <t>로그방정식을 풀기 위해 밑을 통일하고 로그의 성질을 이용해서 변변 정리해줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 $a^{b}=b^{a}$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0026</t>
+  </si>
+  <si>
+    <t>미정계수가 포함된 함수식에 조건에 맞는 $x$ 값을 대입해서 미정계수 사이의 관계식을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 $f(1)=40$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0027</t>
+  </si>
+  <si>
+    <t>한 꼭짓점이 원의 중심이고 나머지 두 꼭짓점이 원 위의 점인 삼각형은 항상 이등변삼각형이라는 사실을 이용해서 세 각의 관계식을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\theta_{3}=\dfrac{\pi}{2}+\dfrac{\theta_{2}}{2}$</t>
+  </si>
+  <si>
+    <t>c0028</t>
+  </si>
+  <si>
+    <t>두 변의 길이와 그 끼인각의 크기가 모두 같으면 합동이라는 사실을 이용해서 두 삼각형이 합동이라는것을 알아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">삼각헝 $\mathrm{O}_{1} \mathrm{O}_{2} \mathrm{~B}$ 와 $\mathrm{O}_{2} \mathrm{O}_{1} \mathrm{D}$; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0029</t>
+  </si>
+  <si>
+    <t>한 변이 지름인 원에 내접하는 삼각형은 직각삼각형이라는 사실을 이용해서 피타고라스 정리를 적용해서 빗변인 지름의 길이를 알아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3k$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0030</t>
+  </si>
+  <si>
+    <t>한 변이 지름인 원에 내접하는 삼각형은 직각삼각형이라는 사실을 이용해서 원하는 삼각비의 값을 알아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\cos \dfrac{\theta_{1}}{2}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구하고자 하는 변의 길이를 변수로 해서 주어진 두 변의 길이와 한 각에 대해 코사인법칙을 적용시켜 이차방정식을 세웁니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3 x^{2}-16 k x+21 k^{2}=0$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0032</t>
+  </si>
+  <si>
+    <t>로그의 밑변환공식을 이용하여 한 종류의 밑으로 일치시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0033</t>
+  </si>
+  <si>
+    <t>로그의 성질을 이용하여 주어진 식을 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0034</t>
+  </si>
+  <si>
+    <t>$\displaystyle\sum_{k=1}^{10} 2 a_{k}-\displaystyle\sum_{k=1}^{8} a_{k}=100$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0035</t>
+  </si>
+  <si>
+    <t>$\displaystyle\sum$가 포함된 두 식을 연립합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0036</t>
+  </si>
+  <si>
+    <t>$\left|a_{n+1}\right|=2\left|a_{n}\right|$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0037</t>
+  </si>
+  <si>
+    <t>조건 (다)의 합과 둥비수열 $\left\{\left|a_{n}\right|\right\}$의 합으로 부터 등비수열  $\left\{a_{n}\right\}$ 항들의 값을 알아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0038</t>
+  </si>
+  <si>
+    <t>$\sin \theta$와 $\cos \theta$의 값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0039</t>
+  </si>
+  <si>
+    <t>거듭제곱근호를 유리수지수로 바꿉니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0040</t>
+  </si>
+  <si>
+    <t>공비를 미지수로 도입합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0041</t>
+  </si>
+  <si>
+    <t>주어진 조건으로부터 공비의 관계식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0042</t>
+  </si>
+  <si>
+    <t>주어진 식의 좌변을 통분하여 정리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0043</t>
+  </si>
+  <si>
+    <t>$\displaystyle\sum$ 안의 분수식을 부분분수로 변형합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0044</t>
+  </si>
+  <si>
+    <t>$\displaystyle\sum$를 풀어 쓴 후 합을 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0045</t>
+  </si>
+  <si>
+    <t>주어진 함수의 주기를 이용하여 문제 해결의 중요한 점의 좌표를 구합니다.</t>
+  </si>
+  <si>
+    <t>32109_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0046</t>
+  </si>
+  <si>
+    <t>앞에서 구한 좌표를 이용하여 문제의 조건들을 연립하여 식으로 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제의 삼각형에 외접원의 반지름을 이용하여 사인법칙으로 변의 길이를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구하려는 변의 길이를 $x$로 놓고 코사인법칙을 적용하여 식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 (가)를 정리하여 미지수의 관계식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연수 조건을 이용하여 미지수를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 (나)의 의미를 파악하여 $\sum_{k=1}^{n} a_{k}$의 최소가 되는 경우를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 조건식을 변변끼리 빼서 $a_{k}$를 소거합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 함수를 미분하여 도함수를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이차함수;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0002</t>
+  </si>
+  <si>
+    <t>도함수에 대입하여 미분계수를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$f^{\prime}(1)$; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0003</t>
+  </si>
+  <si>
+    <t>주어진 불연속 그래프;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0004</t>
+  </si>
+  <si>
+    <t>d0005</t>
+  </si>
+  <si>
+    <t>d0006</t>
+  </si>
+  <si>
+    <t>앞에서 구한 극한값을 이용하여 문제에서 요구하는 것을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\displaystyle\lim _{x \rightarrow-1-} f(x)+\displaystyle\lim _{x \rightarrow 2} f(x)$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0007</t>
+  </si>
+  <si>
+    <t>좌변 삼차함수, 우변 $k$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0008</t>
+  </si>
+  <si>
+    <t>도함수의 부호를 참고하여 함수의 증가, 감소를 조사합니다.</t>
+  </si>
+  <si>
+    <t>d0009</t>
+  </si>
+  <si>
+    <t>좌변에 해당하는 그래프를 좌표평면에 그립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼차함수의 그래프;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0010</t>
+  </si>
+  <si>
+    <t>우변에 해당하는 그래프를 같은 좌표평면에 그립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수함수의 그래프;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0011</t>
+  </si>
+  <si>
+    <t>문제에서 요구하는 교점의 개수를 갖도록 하는 두 그래프의 조건을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극솟값과 극댓값 사이;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0012</t>
+  </si>
+  <si>
+    <t>포물선과 직선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0013</t>
+  </si>
+  <si>
+    <t>둘러싸인 부분의 넓이를 정적분으로 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포물선과 직선의 위치관계;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0014</t>
+  </si>
+  <si>
+    <t>주어진 조건을 만족하는 정적분의 관계식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$0$에서 $k$ 까지;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0015</t>
+  </si>
+  <si>
+    <t>주어진 함수 관계식의 좌변을 인수분해합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0016</t>
+  </si>
+  <si>
+    <t>인수분해된 식을 이용해 가능한 함수의 식을 찾아 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$f(x)$에 대한 삼차식 인수분해;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0017</t>
+  </si>
+  <si>
+    <t>최대와 최소의 조건에 맞게 실수 전체의 집합에서 연속하도록하는 구간 함수를 구간별로 구해줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 $1$ 최소 $0$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0018</t>
+  </si>
+  <si>
+    <t>구해진 결정된 함수에서 각각의 함숫값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구간함수의 함숫값; $f(2)$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0019</t>
+  </si>
+  <si>
+    <t>각각의 함숫값을 이용해서 문제에서 요구하는 것을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함숫값들의 합;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0020</t>
+  </si>
+  <si>
+    <t>주어진 위치의 관계식에 적당한 $t$의 값을 대입하여 각 시각에서 위치를 알아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$x(0)$과 $x(1)$; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0021</t>
+  </si>
+  <si>
+    <t>주어진 정적분이 위치의 변화량이므로 각각의 시각에서 위치를 알아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$x(1) - x(0)$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0022</t>
+  </si>
+  <si>
+    <t>어떤 시각에 대한 보기의 위치 조건과 문제의 전제 조건인 실제 움직인 거리와 관련성을 조사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\left|x\left(t_{1}\right)\right|&gt;1$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0023</t>
+  </si>
+  <si>
+    <t>모든 시각에 대한 보기의 위치 조건과 문제의 전제 조건인 실제 움직인 거리와 관련성을 조사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$|x(t)| &lt; 1$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0024</t>
+  </si>
+  <si>
+    <t>도함수를 적분하여 적분상수가 포함된 함수 $f(x)$ 의 꼴을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$x^{3}+x^{2}+C$; $f(x)=\dfrac{1}{2} x^{3}-\dfrac{3}{2}(\alpha+1) x^{2}+\dfrac{3}{2}\left(\alpha^{2}+2 \alpha\right) x+C$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0025</t>
+  </si>
+  <si>
+    <t>주어진 함숫값을 이용해서 적분상수값을 정해주고 함수 $f(x)$를 결정해 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0026</t>
+  </si>
+  <si>
+    <t>문제에서 요구하는 함숫값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$f(1)$; $f(5)$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0027</t>
+  </si>
+  <si>
+    <t>도함수에 대한 부등식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$f^{\prime}(x) \geq 0$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0028</t>
+  </si>
+  <si>
+    <t>이차부등식이 항상 성립하도록 판별식에 대한 부등식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\dfrac{D}{4} \leq 0$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0029</t>
+  </si>
+  <si>
+    <t>부등식을 풀어서 조건에 맞는 최댓값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$0 \leq a \leq 6$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0030</t>
+  </si>
+  <si>
+    <t>부등식을 풀어서 조건에 맞는 최솟값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0031</t>
+  </si>
+  <si>
+    <t>수치대입법으로 항등식의 미정계수값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$b=1$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0032</t>
+  </si>
+  <si>
+    <t>$x+1=t$ 로 치환해서 구간 $[1, 2]$에서의 함수 $f(t)$를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$f(t)$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0033</t>
+  </si>
+  <si>
+    <t>함수가 미분가능하도록 미정계수값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$a=1$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0034</t>
+  </si>
+  <si>
+    <t>문제에 주어진 정적분을 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ \displaystyle\int_{1}^{2} f(x) d x$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0035</t>
+  </si>
+  <si>
+    <t>이차방정식이 가질수 있는 실근의 개수로 주어진 이차방정식을 세 가지 경우로 분류해서 생각해줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$f^{\prime}(x)=0$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0036</t>
+  </si>
+  <si>
+    <t>이차방정식이 실근을 갖지 않는 경우에 문제의 조건을 만족시키는지 확인합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0037</t>
+  </si>
+  <si>
+    <t>이차방정식이 중근을 갖는 경우에 문제의 조건을 만족시키는지 확인합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0038</t>
+  </si>
+  <si>
+    <t>이차방정식이 서로 다른 두 실근을 갖는 경우에 문제의 조건을 만족시키는지 확인합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">단힌구간의 길이가 $2$이므로 서로 다는 두 실근의 차 $2$인 경우에 대해 문제의 조건(가)와 (나)를 만족하는지 확인합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">단힌구간의 길이가 $2$이므로 서로 다는 두 실근의 차 $2$ 보다 큰 경우에 대해 문제의 조건(가)와 (나)를 만족하는지 확인합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">단힌구간의 길이가 $2$이므로 서로 다는 두 실근의 차 $2$ 보다 작은  경우에 대해 문제의 조건(가)와 (나)를 만족하는지 확인합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0042</t>
+  </si>
+  <si>
+    <t>이차방정식의 두 근의 차가 $2$일 때의 미지수를 도입해서 이차함수의 식을 찾아줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$f^{\prime}(x)=\dfrac{3}{2}(x-\alpha)\{x-(\alpha+2)\}$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0043</t>
+  </si>
+  <si>
+    <t>조건(나)를 이용해서 주어진 이차방정식의 실근을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼차함수 $f(x)$의 적분상수 $f(0)$에 대해 조건(나)를 만족시키는 실근을 알아냅니다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0045</t>
+  </si>
+  <si>
+    <t>구간의 경곗값에서 함숫값, 좌극한값, 우극한값을 구합니다.</t>
+  </si>
+  <si>
+    <t>32109_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0046</t>
+  </si>
+  <si>
+    <t>앞에서 구한 값으로 연속의 정의를 적용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0047</t>
+  </si>
+  <si>
+    <t>함수의 극댓값과 극솟값을 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0048</t>
+  </si>
+  <si>
+    <t>함수의 극댓값을 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0049</t>
+  </si>
+  <si>
+    <t>함수의 극솟값을 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0050</t>
+  </si>
+  <si>
+    <t>구하려는 삼차함수의 식을 미정계수를 포함하여 도입합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0051</t>
+  </si>
+  <si>
+    <t>곡선 위의 점을 곡선의 식에 대입하여 방정식을 만듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0052</t>
+  </si>
+  <si>
+    <t>곡선 위의 점에서의 접선의 방정식을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0053</t>
+  </si>
+  <si>
+    <t>두 직선의 방정식이 일치하도록 계수를 비교하여 연립방정식을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0054</t>
+  </si>
+  <si>
+    <t>주어진 극한의 관계식에서 구체적인 조건을 찾아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0055</t>
+  </si>
+  <si>
+    <t>가속도 조건을 이용하여 미지수의 값을 구합니다.</t>
+  </si>
+  <si>
+    <t>32109_09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0056</t>
+  </si>
+  <si>
+    <t>점 $\mathrm{P}$가 움직인 거리를 정적분으로 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_09; $\displaystyle\int_{1}^{e}\left(2 t^{3}+\dfrac{1}{8 t}\right) d t$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 정적분 관계식에 (위끝)=(아래끝)이 되도록 $x$의 값을 대입합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정적분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관계식의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양변을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> $x$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미분합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞에서 구한 조건과 문제의 조건을 이용하여 미지수에 대한 식을 세우고 미지수를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 조건을 이용하여 $f'(x)$와 $f(x)$의 식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32109_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$p=1$ 일 때 $x&gt;0$ 에서 $g'(x)$를 구하여 $x=1$을 대입합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\lim _{x \rightarrow 0-} {g(x)-g(0)} over {x} = \lim _{x \rightarrow 0+} {g(x)-g(0)} over {x}$이 성립하는 $p$의 값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구간별로 $g(x)$의 식을 구체적으로 구한 후 정적분을 계산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제의 구간에서의 평균변화율과 미분계수를 구하여 방정식을 세웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0911,0910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\displaystyle\sum$의 성질을 이용해서 $\displaystyle\sum$가 포함된 식을 정리합니다.</t>
+  </si>
+  <si>
+    <t>1118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">둘러싸인 부분의 넓이를 구하기 위해 두 식을 연립해서 교점의 $x$좌표를 구합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 점에서 좌극한값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 점에서 우극한값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 점에서 극한값을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 방정식을 (다항함수)=$k$의 꼴로 변형합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1002</t>
+  </si>
+  <si>
+    <t>c1003</t>
+  </si>
+  <si>
+    <t>c1004</t>
+  </si>
+  <si>
+    <t>c1005</t>
+  </si>
+  <si>
+    <t>c1006</t>
+  </si>
+  <si>
+    <t>c2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2002</t>
+  </si>
+  <si>
+    <t>c2003</t>
+  </si>
+  <si>
+    <t>c2004</t>
+  </si>
+  <si>
+    <t>c2005</t>
+  </si>
+  <si>
+    <t>c2006</t>
+  </si>
+  <si>
+    <t>c2007</t>
+  </si>
+  <si>
+    <t>c2008</t>
+  </si>
+  <si>
+    <t>c2009</t>
+  </si>
+  <si>
+    <t>c2010</t>
+  </si>
+  <si>
+    <t>c2011</t>
+  </si>
+  <si>
+    <t>c2012</t>
+  </si>
+  <si>
+    <t>c2013</t>
+  </si>
+  <si>
+    <t>c2014</t>
+  </si>
+  <si>
+    <t>c2015</t>
+  </si>
+  <si>
+    <t>c2016</t>
+  </si>
+  <si>
+    <t>c2017</t>
+  </si>
+  <si>
+    <t>c2018</t>
+  </si>
+  <si>
+    <t>c2019</t>
+  </si>
+  <si>
+    <t>c2020</t>
+  </si>
+  <si>
+    <t>c3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3002</t>
+  </si>
+  <si>
+    <t>c3003</t>
+  </si>
+  <si>
+    <t>c3004</t>
+  </si>
+  <si>
+    <t>c3005</t>
+  </si>
+  <si>
+    <t>c3006</t>
+  </si>
+  <si>
+    <t>c3007</t>
+  </si>
+  <si>
+    <t>c3008</t>
+  </si>
+  <si>
+    <t>c3009</t>
+  </si>
+  <si>
+    <t>c3010</t>
+  </si>
+  <si>
+    <t>c3011</t>
+  </si>
+  <si>
+    <t>c3012</t>
+  </si>
+  <si>
+    <t>c3013</t>
+  </si>
+  <si>
+    <t>c3014</t>
+  </si>
+  <si>
+    <t>c3015</t>
+  </si>
+  <si>
+    <t>등비수열의 귀납적 정의로부터 첫째항과 공비를 알아냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4002</t>
+  </si>
+  <si>
+    <t>c4003</t>
+  </si>
+  <si>
+    <t>c4004</t>
+  </si>
+  <si>
+    <t>c4005</t>
+  </si>
+  <si>
+    <t>c4006</t>
+  </si>
+  <si>
+    <t>c4007</t>
+  </si>
+  <si>
+    <t>c4008</t>
+  </si>
+  <si>
+    <t>c4009</t>
+  </si>
+  <si>
+    <t>c4010</t>
+  </si>
+  <si>
+    <t>c4011</t>
+  </si>
+  <si>
+    <t>d1002</t>
+  </si>
+  <si>
+    <t>d1003</t>
+  </si>
+  <si>
+    <t>d1004</t>
+  </si>
+  <si>
+    <t>d1005</t>
+  </si>
+  <si>
+    <t>d1006</t>
+  </si>
+  <si>
+    <t>d1007</t>
+  </si>
+  <si>
+    <t>d1008</t>
+  </si>
+  <si>
+    <t>d1009</t>
+  </si>
+  <si>
+    <t>d1010</t>
+  </si>
+  <si>
+    <t>d1011</t>
+  </si>
+  <si>
+    <t>d1012</t>
+  </si>
+  <si>
+    <t>d1013</t>
+  </si>
+  <si>
+    <t>d2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2002</t>
+  </si>
+  <si>
+    <t>d2003</t>
+  </si>
+  <si>
+    <t>d2004</t>
+  </si>
+  <si>
+    <t>d2005</t>
+  </si>
+  <si>
+    <t>d2006</t>
+  </si>
+  <si>
+    <t>d2007</t>
+  </si>
+  <si>
+    <t>d2008</t>
+  </si>
+  <si>
+    <t>d2009</t>
+  </si>
+  <si>
+    <t>d2010</t>
+  </si>
+  <si>
+    <t>d2011</t>
+  </si>
+  <si>
+    <t>d2012</t>
+  </si>
+  <si>
+    <t>d2013</t>
+  </si>
+  <si>
+    <t>d2014</t>
+  </si>
+  <si>
+    <t>d2015</t>
+  </si>
+  <si>
+    <t>d2016</t>
+  </si>
+  <si>
+    <t>d2017</t>
+  </si>
+  <si>
+    <t>d2018</t>
+  </si>
+  <si>
+    <t>d2019</t>
+  </si>
+  <si>
+    <t>d2020</t>
+  </si>
+  <si>
+    <t>d2021</t>
+  </si>
+  <si>
+    <t>d2022</t>
+  </si>
+  <si>
+    <t>d2023</t>
+  </si>
+  <si>
+    <t>d2024</t>
+  </si>
+  <si>
+    <t>d2025</t>
+  </si>
+  <si>
+    <t>d2026</t>
+  </si>
+  <si>
+    <t>d2027</t>
+  </si>
+  <si>
+    <t>d2028</t>
+  </si>
+  <si>
+    <t>d3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3002</t>
+  </si>
+  <si>
+    <t>d3003</t>
+  </si>
+  <si>
+    <t>d3004</t>
+  </si>
+  <si>
+    <t>d3005</t>
+  </si>
+  <si>
+    <t>d3006</t>
+  </si>
+  <si>
+    <t>d3007</t>
+  </si>
+  <si>
+    <t>d3008</t>
+  </si>
+  <si>
+    <t>d3009</t>
+  </si>
+  <si>
+    <t>d3010</t>
+  </si>
+  <si>
+    <t>d3011</t>
+  </si>
+  <si>
+    <t>d3012</t>
+  </si>
+  <si>
+    <t>d3013</t>
+  </si>
+  <si>
+    <t>d3014</t>
+  </si>
+  <si>
+    <t>d3015</t>
+  </si>
+  <si>
+    <t>d3016</t>
+  </si>
+  <si>
+    <t>d3017</t>
+  </si>
+  <si>
+    <t>d3018</t>
+  </si>
+  <si>
+    <t>d3019</t>
+  </si>
+  <si>
+    <t>d3020</t>
+  </si>
+  <si>
+    <t>d4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d4002</t>
+  </si>
+  <si>
+    <t>d4003</t>
+  </si>
+  <si>
+    <t>1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도함수에 $x=1$을 대입하여 미분계수를 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수열의 관계식을 이용하여 첫째항부터 차례대로 항들을 구합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도함수의 부호를 참고하여 함수의 증가, 감소를 표로 나타냅니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +1901,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +1935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,12 +1948,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -182,7 +2020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +2052,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +2104,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,10 +2297,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
@@ -629,7 +2503,1978 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E148"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="118.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>368</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>378</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>379</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>384</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>385</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>386</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>389</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>390</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>392</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>396</v>
+      </c>
+      <c r="C63" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>397</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>400</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>401</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>402</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>477</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" t="s">
+        <v>478</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B78" t="s">
+        <v>479</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>405</v>
+      </c>
+      <c r="C83" t="s">
+        <v>359</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>417</v>
+      </c>
+      <c r="C84" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" t="s">
+        <v>361</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>419</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>273</v>
+      </c>
+      <c r="B87" t="s">
+        <v>420</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" t="s">
+        <v>421</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E88" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" t="s">
+        <v>422</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" t="s">
+        <v>423</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
+        <v>424</v>
+      </c>
+      <c r="C91" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" t="s">
+        <v>425</v>
+      </c>
+      <c r="C92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>426</v>
+      </c>
+      <c r="C93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" t="s">
+        <v>427</v>
+      </c>
+      <c r="C94" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>429</v>
+      </c>
+      <c r="C99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" t="s">
+        <v>430</v>
+      </c>
+      <c r="C100" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" t="s">
+        <v>431</v>
+      </c>
+      <c r="C101" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E101" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" t="s">
+        <v>433</v>
+      </c>
+      <c r="C103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>434</v>
+      </c>
+      <c r="C104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E104" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" t="s">
+        <v>435</v>
+      </c>
+      <c r="C105" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E105" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>436</v>
+      </c>
+      <c r="C106" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E106" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" t="s">
+        <v>437</v>
+      </c>
+      <c r="C107" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" t="s">
+        <v>438</v>
+      </c>
+      <c r="C108" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" t="s">
+        <v>439</v>
+      </c>
+      <c r="C109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" t="s">
+        <v>440</v>
+      </c>
+      <c r="C110" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" t="s">
+        <v>441</v>
+      </c>
+      <c r="C111" t="s">
+        <v>252</v>
+      </c>
+      <c r="E111" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" t="s">
+        <v>443</v>
+      </c>
+      <c r="C113" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>258</v>
+      </c>
+      <c r="B114" t="s">
+        <v>444</v>
+      </c>
+      <c r="C114" t="s">
+        <v>259</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" t="s">
+        <v>445</v>
+      </c>
+      <c r="C115" t="s">
+        <v>261</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" t="s">
+        <v>446</v>
+      </c>
+      <c r="C116" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" t="s">
+        <v>447</v>
+      </c>
+      <c r="C117" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>266</v>
+      </c>
+      <c r="B118" t="s">
+        <v>448</v>
+      </c>
+      <c r="C118" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E118" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>269</v>
+      </c>
+      <c r="B119" t="s">
+        <v>449</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" t="s">
+        <v>450</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E120" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" t="s">
+        <v>451</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>283</v>
+      </c>
+      <c r="B122" t="s">
+        <v>452</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>285</v>
+      </c>
+      <c r="B123" t="s">
+        <v>453</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E123" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" t="s">
+        <v>454</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>291</v>
+      </c>
+      <c r="B125" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B126" t="s">
+        <v>456</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" t="s">
+        <v>457</v>
+      </c>
+      <c r="C129" t="s">
+        <v>358</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E129" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" t="s">
+        <v>458</v>
+      </c>
+      <c r="C130" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" t="s">
+        <v>459</v>
+      </c>
+      <c r="C131" t="s">
+        <v>192</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E131" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" t="s">
+        <v>460</v>
+      </c>
+      <c r="C132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E132" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>211</v>
+      </c>
+      <c r="B133" t="s">
+        <v>461</v>
+      </c>
+      <c r="C133" t="s">
+        <v>212</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>214</v>
+      </c>
+      <c r="B134" t="s">
+        <v>462</v>
+      </c>
+      <c r="C134" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E134" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>217</v>
+      </c>
+      <c r="B135" t="s">
+        <v>463</v>
+      </c>
+      <c r="C135" t="s">
+        <v>218</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E135" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" t="s">
+        <v>464</v>
+      </c>
+      <c r="C136" t="s">
+        <v>221</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E136" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" t="s">
+        <v>465</v>
+      </c>
+      <c r="C137" t="s">
+        <v>224</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
+        <v>466</v>
+      </c>
+      <c r="C138" t="s">
+        <v>272</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B139" t="s">
+        <v>467</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B140" t="s">
+        <v>468</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B141" t="s">
+        <v>469</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>296</v>
+      </c>
+      <c r="B142" t="s">
+        <v>470</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E142" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>299</v>
+      </c>
+      <c r="B143" t="s">
+        <v>471</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B144" t="s">
+        <v>472</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B145" t="s">
+        <v>473</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" t="s">
+        <v>474</v>
+      </c>
+      <c r="C146" t="s">
+        <v>243</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E146" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" t="s">
+        <v>475</v>
+      </c>
+      <c r="C147" t="s">
+        <v>246</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E147" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" t="s">
+        <v>476</v>
+      </c>
+      <c r="C148" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E148" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D50" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -641,15 +4486,1973 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232CBE21-865D-47E2-A1CB-38871A921B53}">
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="118.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>403</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C34" t="s">
+        <v>482</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" t="s">
+        <v>483</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>392</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>431</v>
+      </c>
+      <c r="C43" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>432</v>
+      </c>
+      <c r="C44" t="s">
+        <v>484</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" t="s">
+        <v>433</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>434</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>370</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>371</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>457</v>
+      </c>
+      <c r="C53" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" t="s">
+        <v>458</v>
+      </c>
+      <c r="C54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
+        <v>459</v>
+      </c>
+      <c r="C55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>407</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>408</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>409</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>287</v>
+      </c>
+      <c r="B59" t="s">
+        <v>478</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" t="s">
+        <v>453</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" t="s">
+        <v>454</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" t="s">
+        <v>455</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>387</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>386</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>423</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" t="s">
+        <v>424</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>425</v>
+      </c>
+      <c r="C68" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" t="s">
+        <v>426</v>
+      </c>
+      <c r="C69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" t="s">
+        <v>427</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" t="s">
+        <v>406</v>
+      </c>
+      <c r="C71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>410</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>411</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" t="s">
+        <v>412</v>
+      </c>
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>366</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" t="s">
+        <v>460</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E76" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" t="s">
+        <v>462</v>
+      </c>
+      <c r="C78" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" t="s">
+        <v>463</v>
+      </c>
+      <c r="C79" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>377</v>
+      </c>
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>378</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" t="s">
+        <v>379</v>
+      </c>
+      <c r="C82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" t="s">
+        <v>380</v>
+      </c>
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>381</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>367</v>
+      </c>
+      <c r="C85" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" t="s">
+        <v>477</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" t="s">
+        <v>464</v>
+      </c>
+      <c r="C88" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" t="s">
+        <v>465</v>
+      </c>
+      <c r="C89" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>394</v>
+      </c>
+      <c r="C90" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>395</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" t="s">
+        <v>436</v>
+      </c>
+      <c r="C92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E92" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" t="s">
+        <v>437</v>
+      </c>
+      <c r="C93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" t="s">
+        <v>438</v>
+      </c>
+      <c r="C94" t="s">
+        <v>235</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>239</v>
+      </c>
+      <c r="B95" t="s">
+        <v>440</v>
+      </c>
+      <c r="C95" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" t="s">
+        <v>474</v>
+      </c>
+      <c r="C96" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" t="s">
+        <v>475</v>
+      </c>
+      <c r="C97" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" t="s">
+        <v>476</v>
+      </c>
+      <c r="C98" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E98" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" t="s">
+        <v>396</v>
+      </c>
+      <c r="C99" t="s">
+        <v>404</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s">
+        <v>397</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" t="s">
+        <v>443</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" t="s">
+        <v>444</v>
+      </c>
+      <c r="C103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>260</v>
+      </c>
+      <c r="B104" t="s">
+        <v>445</v>
+      </c>
+      <c r="C104" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>446</v>
+      </c>
+      <c r="C105" t="s">
+        <v>263</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>264</v>
+      </c>
+      <c r="B106" t="s">
+        <v>447</v>
+      </c>
+      <c r="C106" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" t="s">
+        <v>448</v>
+      </c>
+      <c r="C107" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E107" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" t="s">
+        <v>449</v>
+      </c>
+      <c r="C108" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>271</v>
+      </c>
+      <c r="B109" t="s">
+        <v>466</v>
+      </c>
+      <c r="C109" t="s">
+        <v>272</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139" t="s">
+        <v>417</v>
+      </c>
+      <c r="C139" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" t="s">
+        <v>439</v>
+      </c>
+      <c r="C143" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>251</v>
+      </c>
+      <c r="B144" t="s">
+        <v>441</v>
+      </c>
+      <c r="C144" t="s">
+        <v>252</v>
+      </c>
+      <c r="E144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" t="s">
+        <v>451</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>283</v>
+      </c>
+      <c r="B146" t="s">
+        <v>452</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D146" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E109">
+    <sortCondition ref="D1:D109"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>